--- a/System/pcb/rev2/aqplus_rev2_CPL1.xlsx
+++ b/System/pcb/rev2/aqplus_rev2_CPL1.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Aquarius Plus\aqp-gerbers\rev2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\AquariusPlus\aquarius-plus\System\pcb\rev2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5758567-F509-4A89-88FA-F4E53206FEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA19E62-3BD0-4780-91EA-F86BCFF44A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="187">
   <si>
     <t>Designator</t>
   </si>
@@ -274,9 +277,6 @@
     <t>JP3</t>
   </si>
   <si>
-    <t>JP4</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -539,6 +539,51 @@
   </si>
   <si>
     <t>270</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>92.3492</t>
+  </si>
+  <si>
+    <t>-56.051</t>
+  </si>
+  <si>
+    <t>70.65</t>
+  </si>
+  <si>
+    <t>-40.65</t>
+  </si>
+  <si>
+    <t>-56.00</t>
+  </si>
+  <si>
+    <t>-46.4684</t>
+  </si>
+  <si>
+    <t>155.1</t>
+  </si>
+  <si>
+    <t>86.0542</t>
+  </si>
+  <si>
+    <t>-138.45</t>
+  </si>
+  <si>
+    <t>200.54</t>
+  </si>
+  <si>
+    <t>166.38</t>
+  </si>
+  <si>
+    <t>-134.075</t>
   </si>
 </sst>
 </file>
@@ -892,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -935,7 +980,7 @@
         <v>-53.123800000000003</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="3">
         <v>90</v>
@@ -952,7 +997,7 @@
         <v>-53.123800000000003</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3">
         <v>90</v>
@@ -969,7 +1014,7 @@
         <v>-53.123800000000003</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3">
         <v>90</v>
@@ -986,7 +1031,7 @@
         <v>-53.123800000000003</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3">
         <v>90</v>
@@ -1003,7 +1048,7 @@
         <v>-52.85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3">
         <v>180</v>
@@ -1020,7 +1065,7 @@
         <v>-62.7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -1037,7 +1082,7 @@
         <v>-55.88</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="3">
         <v>180</v>
@@ -1054,10 +1099,10 @@
         <v>-68.900000000000006</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1071,10 +1116,10 @@
         <v>-65.420562000000004</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1088,7 +1133,7 @@
         <v>-71.655000000000001</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="3">
         <v>180</v>
@@ -1105,7 +1150,7 @@
         <v>-72.150000000000006</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="3">
         <v>180</v>
@@ -1122,7 +1167,7 @@
         <v>-76.549300000000002</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="3">
         <v>180</v>
@@ -1139,7 +1184,7 @@
         <v>-76.549300000000002</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" s="3">
         <v>180</v>
@@ -1156,7 +1201,7 @@
         <v>-79.212500000000006</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E15" s="3">
         <v>90</v>
@@ -1173,7 +1218,7 @@
         <v>-79.212500000000006</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E16" s="3">
         <v>90</v>
@@ -1190,7 +1235,7 @@
         <v>-79.212500000000006</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" s="3">
         <v>90</v>
@@ -1207,7 +1252,7 @@
         <v>-79.212500000000006</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="3">
         <v>90</v>
@@ -1224,7 +1269,7 @@
         <v>-79.212500000000006</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" s="3">
         <v>90</v>
@@ -1241,7 +1286,7 @@
         <v>-79.212500000000006</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" s="3">
         <v>90</v>
@@ -1258,7 +1303,7 @@
         <v>-79.208799999999997</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E21" s="3">
         <v>90</v>
@@ -1275,7 +1320,7 @@
         <v>-79.206199999999995</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" s="3">
         <v>90</v>
@@ -1292,7 +1337,7 @@
         <v>-79.212500000000006</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E23" s="3">
         <v>90</v>
@@ -1309,7 +1354,7 @@
         <v>-78.139899999999997</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="3">
         <v>180</v>
@@ -1326,7 +1371,7 @@
         <v>-76.871399999999994</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -1343,7 +1388,7 @@
         <v>-79.510099999999994</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E26" s="3">
         <v>180</v>
@@ -1360,7 +1405,7 @@
         <v>-80.962599999999995</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E27" s="3">
         <v>180</v>
@@ -1377,7 +1422,7 @@
         <v>-82.421800000000005</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E28" s="3">
         <v>180</v>
@@ -1394,7 +1439,7 @@
         <v>-83.887900000000002</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E29" s="3">
         <v>180</v>
@@ -1411,7 +1456,7 @@
         <v>-83.351399999999998</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E30" s="3">
         <v>180</v>
@@ -1428,7 +1473,7 @@
         <v>-86.962500000000006</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E31" s="3">
         <v>180</v>
@@ -1445,7 +1490,7 @@
         <v>-88.090599999999995</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1462,7 +1507,7 @@
         <v>-89.82</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E33" s="3">
         <v>180</v>
@@ -1479,7 +1524,7 @@
         <v>-88.476399999999998</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="3">
         <v>180</v>
@@ -1496,7 +1541,7 @@
         <v>-89.983199999999997</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E35" s="3">
         <v>180</v>
@@ -1513,10 +1558,10 @@
         <v>-107.35</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1530,7 +1575,7 @@
         <v>-91.462500000000006</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E37" s="3">
         <v>180</v>
@@ -1547,7 +1592,7 @@
         <v>-91.012500000000003</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
@@ -1564,7 +1609,7 @@
         <v>-92.991200000000006</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39" s="3">
         <v>180</v>
@@ -1581,7 +1626,7 @@
         <v>-92.512500000000003</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
@@ -1598,7 +1643,7 @@
         <v>-94.100002000000003</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -1615,7 +1660,7 @@
         <v>-94.131399999999999</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="3">
         <v>180</v>
@@ -1632,7 +1677,7 @@
         <v>-95.6</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1649,7 +1694,7 @@
         <v>-97.462500000000006</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E44" s="3">
         <v>180</v>
@@ -1666,7 +1711,7 @@
         <v>-97.058300000000003</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1683,7 +1728,7 @@
         <v>-104.9414</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E46" s="3">
         <v>180</v>
@@ -1700,10 +1745,10 @@
         <v>-107.33750000000001</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1717,7 +1762,7 @@
         <v>-112.9256</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E48" s="3">
         <v>180</v>
@@ -1734,7 +1779,7 @@
         <v>-112.9256</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E49" s="3">
         <v>180</v>
@@ -1751,10 +1796,10 @@
         <v>-107.21250000000001</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1768,10 +1813,10 @@
         <v>-107.2103</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1785,10 +1830,10 @@
         <v>-107.33750000000001</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1802,10 +1847,10 @@
         <v>-107.33750000000001</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1819,10 +1864,10 @@
         <v>-107.218</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1836,10 +1881,10 @@
         <v>-107.21250000000001</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1853,7 +1898,7 @@
         <v>-112.226</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
@@ -1870,7 +1915,7 @@
         <v>-120.0964</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E57" s="3">
         <v>90</v>
@@ -1887,10 +1932,10 @@
         <v>-118.35039999999999</v>
       </c>
       <c r="D58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1904,10 +1949,10 @@
         <v>-118.6</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1921,7 +1966,7 @@
         <v>-64.400000000000006</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E60" s="3">
         <v>180</v>
@@ -1938,7 +1983,7 @@
         <v>-64</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E61" s="3">
         <v>180</v>
@@ -1955,7 +2000,7 @@
         <v>-147.17500000000001</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -1972,7 +2017,7 @@
         <v>-41</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E63" s="3">
         <v>0</v>
@@ -1989,7 +2034,7 @@
         <v>-41</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E64" s="3">
         <v>0</v>
@@ -2006,7 +2051,7 @@
         <v>-143</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
@@ -2023,7 +2068,7 @@
         <v>-36.459468999999999</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E66" s="3">
         <v>180</v>
@@ -2040,7 +2085,7 @@
         <v>-45.86</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E67" s="3">
         <v>180</v>
@@ -2053,28 +2098,28 @@
       <c r="B68" s="3">
         <v>125</v>
       </c>
-      <c r="C68" s="3">
-        <v>-41</v>
+      <c r="C68" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="3">
-        <v>155</v>
-      </c>
-      <c r="C69" s="3">
-        <v>-35</v>
+      <c r="B69" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E69" s="3">
         <v>180</v>
@@ -2084,34 +2129,34 @@
       <c r="A70" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="3">
-        <v>71</v>
+      <c r="B70" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C70" s="3">
         <v>-49</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E70" s="3">
-        <v>90</v>
+        <v>170</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="3">
-        <v>71</v>
+      <c r="B71" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C71" s="3">
         <v>-64</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71" s="3">
-        <v>90</v>
+        <v>170</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2125,27 +2170,27 @@
         <v>-92.5</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="3">
-        <v>71</v>
+      <c r="B73" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C73" s="3">
         <v>-79</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E73" s="3">
-        <v>90</v>
+        <v>170</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2155,11 +2200,11 @@
       <c r="B74" s="3">
         <v>96</v>
       </c>
-      <c r="C74" s="3">
-        <v>-123.67</v>
+      <c r="C74" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E74" s="3">
         <v>0</v>
@@ -2169,14 +2214,14 @@
       <c r="A75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="3">
-        <v>194.95</v>
-      </c>
-      <c r="C75" s="3">
-        <v>-137.06970000000001</v>
+      <c r="B75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E75" s="3">
         <v>0</v>
@@ -2186,14 +2231,14 @@
       <c r="A76" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="3">
-        <v>160.94999999999999</v>
-      </c>
-      <c r="C76" s="3">
-        <v>-137.06970000000001</v>
+      <c r="B76" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -2203,17 +2248,17 @@
       <c r="A77" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="3">
-        <v>92.349199999999996</v>
-      </c>
-      <c r="C77" s="3">
-        <v>-57.250999999999998</v>
+      <c r="B77" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" s="3">
-        <v>180</v>
+        <v>170</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2223,31 +2268,31 @@
       <c r="B78" s="3">
         <v>96.589200000000005</v>
       </c>
-      <c r="C78" s="3">
-        <v>-57.250999999999998</v>
+      <c r="C78" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E78" s="3">
-        <v>180</v>
+        <v>170</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="3">
-        <v>84.804199999999994</v>
+      <c r="B79" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="C79" s="3">
         <v>-91.007000000000005</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E79" s="3">
-        <v>90</v>
+        <v>170</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2255,16 +2300,16 @@
         <v>84</v>
       </c>
       <c r="B80" s="3">
-        <v>74</v>
+        <v>88.95</v>
       </c>
       <c r="C80" s="3">
-        <v>-91</v>
+        <v>-68.150000000000006</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E80" s="3">
-        <v>90</v>
+        <v>170</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2272,16 +2317,16 @@
         <v>85</v>
       </c>
       <c r="B81" s="3">
-        <v>88.95</v>
+        <v>93.237499999999997</v>
       </c>
       <c r="C81" s="3">
         <v>-68.150000000000006</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2289,16 +2334,16 @@
         <v>86</v>
       </c>
       <c r="B82" s="3">
-        <v>93.237499999999997</v>
+        <v>78.650000000000006</v>
       </c>
       <c r="C82" s="3">
-        <v>-68.150000000000006</v>
+        <v>-126.95</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2306,30 +2351,30 @@
         <v>87</v>
       </c>
       <c r="B83" s="3">
-        <v>78.650000000000006</v>
+        <v>82.55</v>
       </c>
       <c r="C83" s="3">
-        <v>-126.95</v>
+        <v>-48.2027</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="E83" s="3">
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B84" s="3">
         <v>82.55</v>
       </c>
       <c r="C84" s="3">
-        <v>-48.2027</v>
+        <v>-49.7027</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E84" s="3">
         <v>180</v>
@@ -2337,19 +2382,19 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B85" s="3">
-        <v>82.55</v>
+        <v>120.9494</v>
       </c>
       <c r="C85" s="3">
-        <v>-49.7027</v>
+        <v>-53.123800000000003</v>
       </c>
       <c r="D85" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E85" s="3">
-        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2357,16 +2402,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="3">
-        <v>120.9494</v>
+        <v>123.9457</v>
       </c>
       <c r="C86" s="3">
-        <v>-53.123800000000003</v>
+        <v>-53.132300000000001</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="E86" s="3">
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2374,16 +2419,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="3">
-        <v>123.9457</v>
+        <v>128.1994</v>
       </c>
       <c r="C87" s="3">
-        <v>-53.132300000000001</v>
+        <v>-53.123800000000003</v>
       </c>
       <c r="D87" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E87" s="3">
-        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2391,16 +2436,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="3">
-        <v>128.1994</v>
+        <v>131.20660000000001</v>
       </c>
       <c r="C88" s="3">
-        <v>-53.123800000000003</v>
+        <v>-53.118400000000001</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="E88" s="3">
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2408,16 +2453,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="3">
-        <v>131.20660000000001</v>
+        <v>144.56360000000001</v>
       </c>
       <c r="C89" s="3">
-        <v>-53.118400000000001</v>
+        <v>-55.88</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E89" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2425,13 +2470,13 @@
         <v>93</v>
       </c>
       <c r="B90" s="3">
-        <v>144.56360000000001</v>
+        <v>151.43450000000001</v>
       </c>
       <c r="C90" s="3">
-        <v>-55.88</v>
+        <v>-55.862900000000003</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E90" s="3">
         <v>0</v>
@@ -2442,13 +2487,13 @@
         <v>94</v>
       </c>
       <c r="B91" s="3">
-        <v>151.43450000000001</v>
+        <v>158.3193</v>
       </c>
       <c r="C91" s="3">
-        <v>-55.862900000000003</v>
+        <v>-55.864899999999999</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -2459,13 +2504,13 @@
         <v>95</v>
       </c>
       <c r="B92" s="3">
-        <v>158.3193</v>
+        <v>165.40450000000001</v>
       </c>
       <c r="C92" s="3">
-        <v>-55.864899999999999</v>
+        <v>-55.866</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E92" s="3">
         <v>0</v>
@@ -2476,13 +2521,13 @@
         <v>96</v>
       </c>
       <c r="B93" s="3">
-        <v>165.40450000000001</v>
+        <v>144.56360000000001</v>
       </c>
       <c r="C93" s="3">
-        <v>-55.866</v>
+        <v>-57.298299999999998</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E93" s="3">
         <v>0</v>
@@ -2493,13 +2538,13 @@
         <v>97</v>
       </c>
       <c r="B94" s="3">
-        <v>144.56360000000001</v>
+        <v>151.43450000000001</v>
       </c>
       <c r="C94" s="3">
-        <v>-57.298299999999998</v>
+        <v>-57.273899999999998</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -2510,13 +2555,13 @@
         <v>98</v>
       </c>
       <c r="B95" s="3">
-        <v>151.43450000000001</v>
+        <v>158.3193</v>
       </c>
       <c r="C95" s="3">
-        <v>-57.273899999999998</v>
+        <v>-57.281999999999996</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E95" s="3">
         <v>0</v>
@@ -2527,13 +2572,13 @@
         <v>99</v>
       </c>
       <c r="B96" s="3">
-        <v>158.3193</v>
+        <v>165.40629999999999</v>
       </c>
       <c r="C96" s="3">
-        <v>-57.281999999999996</v>
+        <v>-57.2791</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2544,13 +2589,13 @@
         <v>100</v>
       </c>
       <c r="B97" s="3">
-        <v>165.40629999999999</v>
+        <v>144.56360000000001</v>
       </c>
       <c r="C97" s="3">
-        <v>-57.2791</v>
+        <v>-58.716700000000003</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E97" s="3">
         <v>0</v>
@@ -2561,13 +2606,13 @@
         <v>101</v>
       </c>
       <c r="B98" s="3">
-        <v>144.56360000000001</v>
+        <v>151.43340000000001</v>
       </c>
       <c r="C98" s="3">
-        <v>-58.716700000000003</v>
+        <v>-58.697000000000003</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E98" s="3">
         <v>0</v>
@@ -2578,13 +2623,13 @@
         <v>102</v>
       </c>
       <c r="B99" s="3">
-        <v>151.43340000000001</v>
+        <v>158.31549999999999</v>
       </c>
       <c r="C99" s="3">
-        <v>-58.697000000000003</v>
+        <v>-58.692999999999998</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E99" s="3">
         <v>0</v>
@@ -2595,13 +2640,13 @@
         <v>103</v>
       </c>
       <c r="B100" s="3">
-        <v>158.31549999999999</v>
+        <v>82.5</v>
       </c>
       <c r="C100" s="3">
-        <v>-58.692999999999998</v>
+        <v>-59.69</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -2612,13 +2657,13 @@
         <v>104</v>
       </c>
       <c r="B101" s="3">
-        <v>82.5</v>
+        <v>144.56360000000001</v>
       </c>
       <c r="C101" s="3">
-        <v>-59.69</v>
+        <v>-60.134999999999998</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -2629,13 +2674,13 @@
         <v>105</v>
       </c>
       <c r="B102" s="3">
-        <v>144.56360000000001</v>
+        <v>151.43450000000001</v>
       </c>
       <c r="C102" s="3">
-        <v>-60.134999999999998</v>
+        <v>-60.120100000000001</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -2646,13 +2691,13 @@
         <v>106</v>
       </c>
       <c r="B103" s="3">
-        <v>151.43450000000001</v>
+        <v>158.3193</v>
       </c>
       <c r="C103" s="3">
-        <v>-60.120100000000001</v>
+        <v>-60.128100000000003</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E103" s="3">
         <v>0</v>
@@ -2663,13 +2708,13 @@
         <v>107</v>
       </c>
       <c r="B104" s="3">
-        <v>158.3193</v>
+        <v>82.5</v>
       </c>
       <c r="C104" s="3">
-        <v>-60.128100000000003</v>
+        <v>-61.2</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E104" s="3">
         <v>0</v>
@@ -2680,16 +2725,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="3">
-        <v>82.5</v>
+        <v>181</v>
       </c>
       <c r="C105" s="3">
-        <v>-61.2</v>
+        <v>-65.063100000000006</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E105" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2697,16 +2742,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="3">
-        <v>181</v>
+        <v>182.4975</v>
       </c>
       <c r="C106" s="3">
         <v>-65.063100000000006</v>
       </c>
       <c r="D106" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2714,16 +2759,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="3">
-        <v>182.4975</v>
+        <v>184</v>
       </c>
       <c r="C107" s="3">
         <v>-65.063100000000006</v>
       </c>
       <c r="D107" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2731,16 +2776,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="3">
-        <v>184</v>
+        <v>185.5</v>
       </c>
       <c r="C108" s="3">
         <v>-65.063100000000006</v>
       </c>
       <c r="D108" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2748,16 +2793,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="3">
-        <v>185.5</v>
+        <v>187</v>
       </c>
       <c r="C109" s="3">
-        <v>-65.063100000000006</v>
+        <v>-65.05</v>
       </c>
       <c r="D109" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2765,16 +2810,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="3">
-        <v>187</v>
+        <v>188.5</v>
       </c>
       <c r="C110" s="3">
-        <v>-65.05</v>
+        <v>-65.063100000000006</v>
       </c>
       <c r="D110" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2782,16 +2827,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="3">
-        <v>188.5</v>
+        <v>88.55</v>
       </c>
       <c r="C111" s="3">
-        <v>-65.063100000000006</v>
+        <v>-70.650000000000006</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="E111" s="3">
+        <v>180</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2799,16 +2844,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="3">
-        <v>88.55</v>
+        <v>95.95</v>
       </c>
       <c r="C112" s="3">
-        <v>-70.650000000000006</v>
+        <v>-67.3</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E112" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2816,16 +2861,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="3">
-        <v>95.95</v>
+        <v>82.5</v>
       </c>
       <c r="C113" s="3">
-        <v>-67.3</v>
+        <v>-67.599999999999994</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E113" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2836,13 +2881,13 @@
         <v>82.5</v>
       </c>
       <c r="C114" s="3">
-        <v>-67.599999999999994</v>
+        <v>-66.099999999999994</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E114" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2853,10 +2898,10 @@
         <v>82.5</v>
       </c>
       <c r="C115" s="3">
-        <v>-66.099999999999994</v>
+        <v>-69.099999999999994</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E115" s="3">
         <v>0</v>
@@ -2867,13 +2912,13 @@
         <v>119</v>
       </c>
       <c r="B116" s="3">
-        <v>82.5</v>
+        <v>88.55</v>
       </c>
       <c r="C116" s="3">
-        <v>-69.099999999999994</v>
+        <v>-73.650000000000006</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E116" s="3">
         <v>0</v>
@@ -2884,13 +2929,13 @@
         <v>120</v>
       </c>
       <c r="B117" s="3">
-        <v>88.55</v>
+        <v>94.4</v>
       </c>
       <c r="C117" s="3">
-        <v>-73.650000000000006</v>
+        <v>-63.95</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E117" s="3">
         <v>0</v>
@@ -2901,13 +2946,13 @@
         <v>121</v>
       </c>
       <c r="B118" s="3">
-        <v>94.4</v>
+        <v>115.00662699999999</v>
       </c>
       <c r="C118" s="3">
-        <v>-63.95</v>
+        <v>-78.049300000000002</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E118" s="3">
         <v>0</v>
@@ -2918,13 +2963,13 @@
         <v>122</v>
       </c>
       <c r="B119" s="3">
-        <v>115.00662699999999</v>
+        <v>118.30662700000001</v>
       </c>
       <c r="C119" s="3">
         <v>-78.049300000000002</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E119" s="3">
         <v>0</v>
@@ -2935,13 +2980,13 @@
         <v>123</v>
       </c>
       <c r="B120" s="3">
-        <v>118.30662700000001</v>
+        <v>92.85</v>
       </c>
       <c r="C120" s="3">
-        <v>-78.049300000000002</v>
+        <v>-109.15</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E120" s="3">
         <v>0</v>
@@ -2952,13 +2997,13 @@
         <v>124</v>
       </c>
       <c r="B121" s="3">
-        <v>92.85</v>
+        <v>116.85</v>
       </c>
       <c r="C121" s="3">
-        <v>-109.15</v>
+        <v>-114.4256</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E121" s="3">
         <v>0</v>
@@ -2969,16 +3014,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="3">
-        <v>116.85</v>
+        <v>85.835800000000006</v>
       </c>
       <c r="C122" s="3">
-        <v>-114.4256</v>
+        <v>-120.0966</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E122" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2986,16 +3031,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="3">
-        <v>85.835800000000006</v>
+        <v>87.505300000000005</v>
       </c>
       <c r="C123" s="3">
-        <v>-120.0966</v>
+        <v>-120.0941</v>
       </c>
       <c r="D123" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E123" s="3">
-        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3003,16 +3048,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="3">
-        <v>87.505300000000005</v>
+        <v>89.130700000000004</v>
       </c>
       <c r="C124" s="3">
-        <v>-120.0941</v>
+        <v>-120.0917</v>
       </c>
       <c r="D124" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3020,16 +3065,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="3">
-        <v>89.130700000000004</v>
+        <v>92.411000000000001</v>
       </c>
       <c r="C125" s="3">
-        <v>-120.0917</v>
+        <v>-120.0826</v>
       </c>
       <c r="D125" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3037,16 +3082,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="3">
-        <v>92.411000000000001</v>
+        <v>98.282899999999998</v>
       </c>
       <c r="C126" s="3">
-        <v>-120.0826</v>
+        <v>-120.07899999999999</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3054,16 +3099,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="3">
-        <v>98.282899999999998</v>
+        <v>99.981099999999998</v>
       </c>
       <c r="C127" s="3">
-        <v>-120.07899999999999</v>
+        <v>-120.0926</v>
       </c>
       <c r="D127" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3071,16 +3116,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="3">
-        <v>99.981099999999998</v>
+        <v>102.1503</v>
       </c>
       <c r="C128" s="3">
-        <v>-120.0926</v>
+        <v>-120.0975</v>
       </c>
       <c r="D128" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3088,16 +3133,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="3">
-        <v>102.1503</v>
+        <v>103.6117</v>
       </c>
       <c r="C129" s="3">
-        <v>-120.0975</v>
+        <v>-120.09820000000001</v>
       </c>
       <c r="D129" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3105,16 +3150,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="3">
-        <v>103.6117</v>
+        <v>105.06829999999999</v>
       </c>
       <c r="C130" s="3">
-        <v>-120.09820000000001</v>
+        <v>-120.0975</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="E130" s="3">
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3122,13 +3167,13 @@
         <v>134</v>
       </c>
       <c r="B131" s="3">
-        <v>105.06829999999999</v>
+        <v>75.2</v>
       </c>
       <c r="C131" s="3">
-        <v>-120.0975</v>
+        <v>-118.35</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E131" s="3">
         <v>90</v>
@@ -3139,13 +3184,13 @@
         <v>135</v>
       </c>
       <c r="B132" s="3">
-        <v>75.2</v>
+        <v>160.94999999999999</v>
       </c>
       <c r="C132" s="3">
-        <v>-118.35</v>
+        <v>-131.255</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E132" s="3">
         <v>90</v>
@@ -3156,13 +3201,13 @@
         <v>136</v>
       </c>
       <c r="B133" s="3">
-        <v>160.94999999999999</v>
+        <v>162.33500000000001</v>
       </c>
       <c r="C133" s="3">
         <v>-131.255</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E133" s="3">
         <v>90</v>
@@ -3173,13 +3218,13 @@
         <v>137</v>
       </c>
       <c r="B134" s="3">
-        <v>162.33500000000001</v>
+        <v>163.72</v>
       </c>
       <c r="C134" s="3">
         <v>-131.255</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E134" s="3">
         <v>90</v>
@@ -3190,13 +3235,13 @@
         <v>138</v>
       </c>
       <c r="B135" s="3">
-        <v>163.72</v>
+        <v>165.1</v>
       </c>
       <c r="C135" s="3">
         <v>-131.255</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E135" s="3">
         <v>90</v>
@@ -3207,13 +3252,13 @@
         <v>139</v>
       </c>
       <c r="B136" s="3">
-        <v>165.1</v>
+        <v>166.49</v>
       </c>
       <c r="C136" s="3">
         <v>-131.255</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E136" s="3">
         <v>90</v>
@@ -3224,13 +3269,13 @@
         <v>140</v>
       </c>
       <c r="B137" s="3">
-        <v>166.49</v>
+        <v>167.875</v>
       </c>
       <c r="C137" s="3">
         <v>-131.255</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E137" s="3">
         <v>90</v>
@@ -3241,13 +3286,13 @@
         <v>141</v>
       </c>
       <c r="B138" s="3">
-        <v>167.875</v>
+        <v>169.26</v>
       </c>
       <c r="C138" s="3">
         <v>-131.255</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E138" s="3">
         <v>90</v>
@@ -3258,13 +3303,13 @@
         <v>142</v>
       </c>
       <c r="B139" s="3">
-        <v>169.26</v>
+        <v>170.64500000000001</v>
       </c>
       <c r="C139" s="3">
         <v>-131.255</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E139" s="3">
         <v>90</v>
@@ -3275,13 +3320,13 @@
         <v>143</v>
       </c>
       <c r="B140" s="3">
-        <v>170.64500000000001</v>
+        <v>172.03</v>
       </c>
       <c r="C140" s="3">
         <v>-131.255</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E140" s="3">
         <v>90</v>
@@ -3292,13 +3337,13 @@
         <v>144</v>
       </c>
       <c r="B141" s="3">
-        <v>172.03</v>
+        <v>194.95</v>
       </c>
       <c r="C141" s="3">
         <v>-131.255</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E141" s="3">
         <v>90</v>
@@ -3309,13 +3354,13 @@
         <v>145</v>
       </c>
       <c r="B142" s="3">
-        <v>194.95</v>
+        <v>196.33500000000001</v>
       </c>
       <c r="C142" s="3">
         <v>-131.255</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E142" s="3">
         <v>90</v>
@@ -3326,13 +3371,13 @@
         <v>146</v>
       </c>
       <c r="B143" s="3">
-        <v>196.33500000000001</v>
+        <v>197.72</v>
       </c>
       <c r="C143" s="3">
         <v>-131.255</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E143" s="3">
         <v>90</v>
@@ -3343,13 +3388,13 @@
         <v>147</v>
       </c>
       <c r="B144" s="3">
-        <v>197.72</v>
+        <v>199.10499999999999</v>
       </c>
       <c r="C144" s="3">
         <v>-131.255</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E144" s="3">
         <v>90</v>
@@ -3360,13 +3405,13 @@
         <v>148</v>
       </c>
       <c r="B145" s="3">
-        <v>199.10499999999999</v>
+        <v>200.49</v>
       </c>
       <c r="C145" s="3">
         <v>-131.255</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E145" s="3">
         <v>90</v>
@@ -3377,13 +3422,13 @@
         <v>149</v>
       </c>
       <c r="B146" s="3">
-        <v>200.49</v>
+        <v>201.875</v>
       </c>
       <c r="C146" s="3">
         <v>-131.255</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E146" s="3">
         <v>90</v>
@@ -3394,13 +3439,13 @@
         <v>150</v>
       </c>
       <c r="B147" s="3">
-        <v>201.875</v>
+        <v>203.26</v>
       </c>
       <c r="C147" s="3">
         <v>-131.255</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E147" s="3">
         <v>90</v>
@@ -3411,13 +3456,13 @@
         <v>151</v>
       </c>
       <c r="B148" s="3">
-        <v>203.26</v>
+        <v>204.64500000000001</v>
       </c>
       <c r="C148" s="3">
         <v>-131.255</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E148" s="3">
         <v>90</v>
@@ -3428,13 +3473,13 @@
         <v>152</v>
       </c>
       <c r="B149" s="3">
-        <v>204.64500000000001</v>
+        <v>206.03</v>
       </c>
       <c r="C149" s="3">
         <v>-131.255</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E149" s="3">
         <v>90</v>
@@ -3445,13 +3490,13 @@
         <v>153</v>
       </c>
       <c r="B150" s="3">
-        <v>206.03</v>
+        <v>79.650000000000006</v>
       </c>
       <c r="C150" s="3">
-        <v>-131.255</v>
+        <v>-123.45</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E150" s="3">
         <v>90</v>
@@ -3462,16 +3507,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="3">
-        <v>79.650000000000006</v>
+        <v>78</v>
       </c>
       <c r="C151" s="3">
-        <v>-123.45</v>
+        <v>-144.05000000000001</v>
       </c>
       <c r="D151" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E151" s="3">
-        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3479,16 +3524,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="3">
-        <v>78</v>
+        <v>208.95750000000001</v>
       </c>
       <c r="C152" s="3">
-        <v>-144.05000000000001</v>
+        <v>-44.332500000000003</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="E152" s="3">
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3496,16 +3541,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="3">
-        <v>208.95750000000001</v>
+        <v>162.16249999999999</v>
       </c>
       <c r="C153" s="3">
-        <v>-44.332500000000003</v>
+        <v>-69.099999999999994</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E153" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3513,13 +3558,13 @@
         <v>157</v>
       </c>
       <c r="B154" s="3">
-        <v>162.16249999999999</v>
+        <v>162.172774</v>
       </c>
       <c r="C154" s="3">
-        <v>-69.099999999999994</v>
+        <v>-65.636262000000002</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E154" s="3">
         <v>0</v>
@@ -3530,16 +3575,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="3">
-        <v>162.172774</v>
+        <v>116.693327</v>
       </c>
       <c r="C155" s="3">
-        <v>-65.636262000000002</v>
+        <v>-71.400000000000006</v>
       </c>
       <c r="D155" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E155" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3547,16 +3592,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="3">
-        <v>116.693327</v>
+        <v>162.54660000000001</v>
       </c>
       <c r="C156" s="3">
-        <v>-71.400000000000006</v>
+        <v>-75.905000000000001</v>
       </c>
       <c r="D156" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E156" s="3">
-        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3564,16 +3609,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="3">
-        <v>162.54660000000001</v>
+        <v>92.056700000000006</v>
       </c>
       <c r="C157" s="3">
-        <v>-75.905000000000001</v>
+        <v>-81.636700000000005</v>
       </c>
       <c r="D157" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E157" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3581,16 +3626,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="3">
-        <v>92.056700000000006</v>
+        <v>135.22</v>
       </c>
       <c r="C158" s="3">
-        <v>-81.636700000000005</v>
+        <v>-93.212500000000006</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E158" s="3">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3598,16 +3643,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="3">
-        <v>135.22</v>
+        <v>186.10749999999999</v>
       </c>
       <c r="C159" s="3">
-        <v>-93.212500000000006</v>
+        <v>-76.848100000000002</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
+      </c>
+      <c r="E159" s="3">
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3615,16 +3660,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="3">
-        <v>186.10749999999999</v>
+        <v>162.56</v>
       </c>
       <c r="C160" s="3">
-        <v>-76.848100000000002</v>
+        <v>-87.601399999999998</v>
       </c>
       <c r="D160" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E160" s="3">
-        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3635,13 +3680,13 @@
         <v>162.56</v>
       </c>
       <c r="C161" s="3">
-        <v>-87.601399999999998</v>
+        <v>-98.381399999999999</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E161" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3649,16 +3694,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="3">
-        <v>162.56</v>
+        <v>65</v>
       </c>
       <c r="C162" s="3">
-        <v>-98.381399999999999</v>
+        <v>-106</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E162" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3666,16 +3711,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="3">
-        <v>65</v>
+        <v>115.0775</v>
       </c>
       <c r="C163" s="3">
-        <v>-106</v>
+        <v>-107.7756</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E163" s="3">
-        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3683,16 +3728,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="3">
-        <v>115.0775</v>
+        <v>162.56</v>
       </c>
       <c r="C164" s="3">
-        <v>-107.7756</v>
+        <v>-109.1914</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E164" s="3">
-        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3700,16 +3745,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="3">
-        <v>162.56</v>
+        <v>186.42269999999999</v>
       </c>
       <c r="C165" s="3">
-        <v>-109.1914</v>
+        <v>-100.965</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E165" s="3">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3717,36 +3762,20 @@
         <v>169</v>
       </c>
       <c r="B166" s="3">
-        <v>186.42269999999999</v>
+        <v>114.45</v>
       </c>
       <c r="C166" s="3">
-        <v>-100.965</v>
+        <v>-92.95</v>
       </c>
       <c r="D166" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E166" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E166" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B167" s="3">
-        <v>114.45</v>
-      </c>
-      <c r="C167" s="3">
-        <v>-92.95</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>